--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/7_Ankara_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/7_Ankara_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F87A20B5-1430-4C6C-B258-99384C18D1E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA9A7E42-35F3-4EEE-BD10-CFC5675D5A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="663" xr2:uid="{93950C74-0760-43DE-ABCF-66A920558043}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="663" xr2:uid="{96EC8D3F-A953-45E6-8244-FF81801C19F0}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -971,15 +971,15 @@
   <cellStyles count="11">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{E3995F6B-96E7-42A9-A351-B3D2158CBA2C}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{EBF4BCCF-CCC4-4DE6-83CD-B781B4700854}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{8588CE18-9B33-4B54-B696-8D5B5042A762}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{317803B1-9ECB-4138-A9D7-4AB6150260C2}"/>
-    <cellStyle name="Normal 4" xfId="6" xr:uid="{1EE77AB7-0C53-475C-98A8-0D856077CF17}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{9EE84AA2-66B5-40FB-B7C6-D44D89301D48}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{34A1D7D0-F1B2-4D9D-AD08-050E63B582E0}"/>
-    <cellStyle name="Not 2" xfId="9" xr:uid="{86467B9D-85B6-4E06-9ABC-C3AE02F1923F}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{32D56B48-D47D-4C80-B621-E8A95BD52713}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{2C082BA8-4E2B-42FF-A521-C3F6E958AF38}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{9D0F85C4-1B9D-4998-8577-FD0F336EF4F1}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{B55E397E-E244-486E-9675-8DC686DE7767}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{E626888D-19D3-4A5A-ABB5-F07E0223BFEA}"/>
+    <cellStyle name="Normal 4" xfId="6" xr:uid="{E088726D-4554-4AC4-85C5-3A3E16996BEA}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{FE6D6061-2C08-4D4C-81CD-5DA257A0B90D}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{F6B87EC8-5BDC-485B-9B72-6FA43F9950CA}"/>
+    <cellStyle name="Not 2" xfId="9" xr:uid="{46B04AB2-DC88-40B3-98B1-4EE3E30A715D}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{6F4733E1-8B7A-4AD7-B105-BE67DA912280}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1349,7 +1349,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D94A675D-6ED1-4051-9A77-31B713530CC6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{167E27D3-AE29-4897-A3CE-7FFB5DD0503E}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2678,18 +2678,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3EA04CAA-40E9-46AF-8080-2CAD098EE543}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{925BD879-B58C-4940-BD17-9FD91FCF5E2B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{97942AF6-4C14-4C3D-A38A-9B059FD1D344}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CEBE558A-28B9-43EB-9081-7948E9811529}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{81568187-AFA1-42A0-AAB3-63471F48FFAC}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9F013D90-B8C7-43A5-9834-248E190F7EC7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{58CA5769-732B-4AE6-B596-3F5426FB9DA7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{190DD3D4-13B6-426C-88AD-030F6867ED52}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E4627AB4-7A0F-4BA1-A9DC-6C2AED4771BC}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{FE808CD8-0AA5-4FEB-B8EA-59AA6CC236A5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{346F5B76-D352-4265-9E33-4B956F1B1775}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0B072CD9-EB76-4B6A-A6FF-24FFC7F21B6C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9000CA9B-63E5-463E-931D-268278E7DD2C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{32309DF9-2E36-4805-AB1F-ED625E49DA41}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8E8CEAF0-216E-42FD-89A3-54B5EBDF44AE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F5E45241-03AA-4192-B586-B1B3DB017007}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3837DB7F-47A2-4D7E-BE44-5450B6594EBC}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{08C50979-C299-4886-A1E9-4058BEDCC0D6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E82ED61A-C07F-4640-955E-15178DD8BA2E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AC647E7C-88D8-4903-8693-33DB88E32401}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B74C283C-5A7A-4EFD-8427-F397998A7349}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E3047E04-CEA3-4BE2-852F-9050CB853536}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D2316C54-F660-4FF2-940B-628A0EACC99B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9946CAA0-6CB3-44BE-B9C7-323F26D8B28C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2702,7 +2702,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FEF6922-CAC7-4C44-A8E6-E7DB8CB7149A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABCAA01C-1C92-4D33-87F9-7EB96211D69B}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -4050,18 +4050,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F43FA182-A251-4213-9D90-A5A1AB4D8FA4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6FA4E50D-746E-409D-8F90-6F4520DC70E6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D674877F-3198-498B-8E20-7A26B256BC15}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E187B7E6-22B0-4F5D-8AFD-C2CD60F61C2B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C5A7E21A-A7F3-47AC-ACB6-73E4D7D1CD51}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{DDC62FBE-8985-4BE8-910D-2918350C24D5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{11E97059-E0D4-4DCF-9B6A-76E356B7B193}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D2E9F5C1-1057-43AF-94F1-B37C1A6CE7A0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E5C1D2C1-B9C2-42E3-8D63-F1C43E12594F}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A3CEE8DA-71EF-41B3-B00B-FF57AF5DFDBE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{71369E16-EB51-4D23-BDDF-B991FB5815E7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5CA8ACC7-EF17-4C46-80C9-C6D63AD63C54}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CE19CFA7-DAA4-4331-A413-2552E95FB945}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6D38012E-FD6D-4F19-8860-831290D9FEE8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F654CA7B-287B-4D3A-B417-E5E327873545}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B06054BB-C0AD-4319-ADCF-7F7EB3BF7465}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E3654F68-2833-4464-9040-DAA175CD0211}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{49F8EDCC-4E5F-4946-A6BF-4F08D59E97E0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{41597AC2-11CC-49A6-A3A7-C80D8F9E2CDA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B92F272C-9C91-46F6-9D7E-10C26B1AD718}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{04E4503C-9398-465C-95D9-84ED81EDF033}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{BC86E827-A6D3-4848-9E83-9981943DB3D8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{140EB453-A95B-4230-BD5B-5CBABDDDA0A4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E9F89B42-78FC-4825-A73D-6A395D362E56}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4074,7 +4074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEC03072-B0CC-46B4-8680-393EA0C55791}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953E9CA5-01CC-4396-991D-3569598952A0}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -5422,18 +5422,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{368FE488-1449-42F8-AA76-9606CA2CA642}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E0FE7EFE-93CF-4E66-8F7B-823EBE22267A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1ABDF724-FBD8-447C-AA3C-915C01B2F580}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{19CAA38D-9F6F-4CF4-8E7F-D05493DFD319}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{622AD5BC-2115-4DB8-9A57-3663E67931D4}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2EEA07C6-4919-4036-BD0D-D8BBDA553BC2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B73CCC0F-633E-48E4-86F8-97601A2B1CB3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{550AD284-CC54-4CCD-BDDB-26B35E5A6F26}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AABC3340-B11D-4AC2-AD64-FF5D662407BF}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{845531C5-32A4-4B02-9FD8-6AA60A9FCAA7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{877621FA-7E3F-4A09-8BE4-A7CF2F65E52A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{74B57468-BB04-40D3-A88D-17BDE79E7CF6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{83837625-78B9-44B5-840B-B90878A7D3B6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E8A78DFD-E367-4F96-B72C-784E8605723C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{353C11AE-9FE1-40C3-9E8C-DD18EAB06F35}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1E54BF4A-F17E-4039-89A6-B3450FA03E26}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C5CA2037-1A87-4FBB-AF06-86A2784F081C}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{81BE019C-6B7D-4689-948A-74301D3FCFA7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B88EACDA-5D91-4359-8C25-FCF901F5A4D6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8C42248B-660C-4F80-85FC-44CB8D4705D1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E27CEF1A-859F-4623-917E-074E7A2C4A34}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{F9CFFC43-EE47-4898-B298-17D76704C4C4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{02F29A8C-9DEA-4969-83C4-EA50DE9B21D5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EFAB4C1C-A12D-482B-BF31-FFFAF5E80030}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5446,7 +5446,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3AAB7CA-8B29-40D1-8326-30331E8B7A92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EEEAB2-CCC7-409A-A0B9-8953B24B52EA}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -6786,18 +6786,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2032AE15-12A0-47B8-88A8-96385C7DB3A8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BD6EE71F-95A2-427F-B23F-EB78F59B5C36}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E71163E3-22C7-4A79-B1DB-608484D7A930}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BDE85A37-3256-4571-974F-41733BDFACBE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FC8C880A-D701-4AEF-BE0A-C3F7E767508F}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7CDB8ECE-22A7-48FC-8A58-938DD416CFE0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0E930561-D65C-4A0C-9F0B-B328BD255E01}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9BE3F42B-AC1D-4A88-92A1-8CEF8C7F168B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DA24DD68-F316-45A5-9971-062E8AA16E54}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{460DA6A0-1165-47C3-B777-257A58357333}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7D2DDF03-9B4C-4CC8-A503-F7CD1FB943C7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{40E0E5E7-81DE-4A76-9EE7-54C1350E17AC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A12ED202-8374-45C6-9708-94DDBFDCACE9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{ECD9D4C7-B06E-420B-A2A7-319E77F09F3A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{ECFCA032-2AD5-427A-9887-B40620435E16}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{93BD90D8-A0D0-454D-ABD3-C9D9AA5F30DB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FFAA34A8-C2E3-4897-901C-F30C3B395CC2}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3A898F97-6CA5-4079-9A48-DC31D322F1D3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D5ADDFE6-FC91-41B4-979F-24FA23558D4F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{16C5B2C7-1FCC-4F46-8C16-428C48EDD06D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DF5EAD40-4F8A-4F36-8120-FC231D6D703F}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{F34DE7BD-9BAB-4DEC-814F-03BC096BFF86}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C40664AB-74C1-432C-94DC-1F4FE40DB9A9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D57D9195-6BE5-4C52-9FE2-1A878D8945A0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6810,7 +6810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A626C20-4955-44BF-B1CA-C222F611EA9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDCEAC7-F22F-4B89-9DF2-1DA9D46E64B7}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8143,18 +8143,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3C4CEF40-CF16-4D6C-828B-CD504C535C41}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BD88C97F-CE2E-4271-AD17-4FC7787D93CF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{975D9F4E-4072-4FA6-AA01-A9BA91B66E99}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7E680707-D732-4F76-BB27-70C6CBC80EE8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{69821BC1-54A9-4F13-BCF7-D0941432EFBB}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{85793C42-478E-446F-8017-6807BBD99979}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4C1B2167-5E26-478F-85C9-53A89C8CA7E4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2A6AA370-E4A9-46EB-9E4D-B62D67C7DEDF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2F7B7634-311D-4ED3-A14E-87A17635C35F}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{0F0D2970-D76B-4A32-8C91-A65E2AB798CC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2856D7C6-7CB4-4A90-AC3D-FD6473C2959A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1B6CEA4A-9CB7-4325-BC7C-F182960485A2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{61292E33-EF24-441A-8A44-04025B5560FC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1C9DB5B0-7E06-4464-937C-891568A0E3C5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{371021E2-F412-40FD-86B6-896D853539C0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{483535A1-B52E-4BCF-B45D-34940EEFB972}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{250205BA-0C50-4C1E-8ED9-49066B7AB191}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F9E20FE0-40DC-4F30-8DCF-A5E1C60624B6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{339BDD93-AF7F-4BB8-B434-043173D06DC5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DC6BE305-C03B-4AAF-B1D4-743AB74A521E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{ACA1BA2B-5A43-48B4-A749-BCAC40E37552}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{FB9DF522-A1B7-4131-B880-887D9CA05640}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A37187E2-706D-4891-B1F5-027F7094B337}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{15CA349C-6FA0-490F-A1B5-BF18B056A650}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8167,7 +8167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D98DB6BE-FB1F-4106-9B34-1E53A7A7E3EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A9E0CC-99A8-4CC9-BBFA-ADEDF5F32F63}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9500,18 +9500,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{88E9A37D-917A-4D50-AF64-EF36236E1556}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{153FB4AF-6DE9-487C-9BE7-596191AF1699}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F3F98F9A-9C5F-4373-A99E-27F9D90B6878}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B61C919C-7155-42AB-883D-61F86E26163D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B7AFA851-3EDB-44EC-BE1A-3B545975C1C7}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F42CD463-CFD7-4E3B-8A46-DA2B0622D125}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1004D89D-36AA-4B08-B1FD-698356DDAF87}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{419C2273-3C14-4414-8357-033883EA134E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{17B17F39-7D23-4A9E-B0FF-FA25509CC9A1}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{26AAC053-D1DB-41EF-8E35-DAD946DD1F07}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A2A8B3CD-30CF-4AE8-BCD1-3CD084E912E7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{100B1C79-C6E8-4143-90E4-ECA95E3A7CD9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C606B691-CF6C-4395-99B6-F13CB0C481C9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6510A3AD-AD4A-48D3-8C02-893286F62EA0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7EF42E1A-D218-4FBE-9F7B-78372DF53F19}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{63C7458E-9F6E-4F4B-9084-DCA6B1D0DADB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{12953D3F-43B4-4CA3-8C80-E0C0F3B99DD4}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C48BF925-7912-41C5-8AEE-F0607471AA60}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{25841EF0-5A24-4883-A560-AAA0CF5C0E63}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{90A8D301-6DBE-4E2A-943A-F1A565DBB15A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{33D24690-E0C7-47CD-8747-5CFD6696CFC9}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{77436D3B-B1C7-4705-96CD-BDD34F3FB568}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{32F1A542-7594-44F4-A60A-AE131AAB64D2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A6788BD6-C6C8-4FD7-8C75-B1F2D868FB7C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9524,7 +9524,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB65664-B5C4-4258-B046-BBD1EDF8D235}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09588288-CB64-4996-B3B0-03845595A55B}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10857,18 +10857,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2638D5F1-CF77-4808-A2C2-5CADB4BE4EC5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B0DC8D3A-1D9C-436D-A115-BFD7386A2FC4}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{07F36919-AD13-4F6C-828A-CEC186EAB8A1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F8C3857D-6AA1-49A7-A958-AFC078516E9E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{44E1D305-4D33-4350-A42F-D06C5F59FCA9}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4243AD82-CA23-46D1-93A6-DAACABE30215}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{947DF833-8E1A-46F3-8E2B-93545F9BF518}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B5BE48E4-447E-4EBD-8DE4-E7CF1A6AC145}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{86B2F489-4804-4BFF-BF30-C0F679D034BB}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{121D1F61-287D-4C4A-A011-E448CA1C1D16}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{13B5D181-A450-4F10-8584-19F3561ACAC1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9CBF2F88-62F9-434A-A699-A1AFA9D15D63}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{662E6A1B-0D79-4699-847D-00711BEB81CA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{116C82CC-3E3D-4AC2-B159-0206FE4F6DE7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{847B2AE5-ECAB-4C95-A6D0-A60B3971A099}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{76185833-833C-45D1-859B-87E312E3D963}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D46ED93C-4DFF-4A0A-A71E-D819A5D3DAED}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{55AA9542-8F90-491F-8FEC-81BFB6243214}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AE4B3C08-7F0D-4C01-875F-BE040A95B5FF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6D0F01DC-9D05-45CD-A5E9-53A3E25EFFF4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{157EE75F-5053-4E7D-91FF-98A2C4928D61}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{B544244C-BC79-48C7-8BCC-097CFC34DE69}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F42126EF-2CEF-4F37-AC82-B4EF0A813710}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BC11327D-A50E-40EA-85DC-BEA0511BFAD4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10881,7 +10881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EA09BF-4972-48B1-A5EC-20CF4058903D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C35267EE-7DD4-4478-8620-13D7B053FC8B}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12214,18 +12214,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5659C949-91CF-4974-B6D8-6F5AC0E0C5EF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9CC9CBDD-C78D-4B9C-9D11-D2810BC39900}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{91CA18D4-68BD-4EA4-BAF5-06587263F93B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{43414A1D-84CC-4B2A-B1C2-F637C3E57FE5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CCAA79A2-51B8-4F68-8CCB-B60944B92A94}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6665FBD4-854A-470E-88F0-A68046A86056}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{673DF38B-21DC-4150-BE00-73F81CD4F84B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{13871783-35B5-45BB-9420-27F3BE808285}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D01F521F-43C3-424A-B288-39877E0D1952}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{AF12E40F-BF62-4C7F-A85A-EAE41973435A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{82266D20-ADA2-4485-88AE-7813CAAA9A5F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{36E61E33-3C2E-4451-B470-2016732BC23C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9D2ACFB6-EA81-4E17-A188-92D38DAA616E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5A8BD69C-86F8-4AFC-842C-FD2C09CBC694}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7930B946-F28D-4B85-83B0-5B9E9BB854D3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{66F36797-7118-4F10-B9F2-EC442CC5B5FE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5C5B789A-CFC5-4C6C-BAE1-D51682E1D46D}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4F0C0B3D-2BCE-472B-ADC5-B8692CD03F13}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BECF3A60-7167-48EB-9A14-A7B4ED24EF87}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9A5F9D67-0461-49F7-8621-056541A88A8E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D1517C41-9354-4B63-9CDE-3DE35B4B8F8B}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{772406D9-F86F-4FAE-83C1-AE75C68BCCC9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2CC4A41B-CB7F-4F27-99A0-E45750A5C437}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{70FA4E13-2833-40C0-AC94-D35D8E81480B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12238,7 +12238,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97AF1481-C798-443A-AF0D-DAEB54B94C79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EFB769B-D8D5-4E18-BA87-8EAA43F20904}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -13564,18 +13564,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3F62D496-B6F6-4E1C-82C7-2631C94DE906}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{41EF6D03-FE42-447F-B2DE-F3689C605632}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{12FD738B-C7D3-41AA-AC15-83D2B91B8B09}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F9428CB1-13F3-4C97-84CF-7298D55860CB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{70E351F2-CB58-4ABE-9B99-FB64A328B87B}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A91F56EA-3BB0-429B-BDA2-4DEBDFE1A005}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EAA1B266-4F75-4981-99BB-185AA1D8B431}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{061D80D1-3BA5-43B5-B493-988E0B491E8A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E37E5992-377F-4180-8F24-BE1DD6748EC1}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{5CB7DB14-D967-4561-8DB7-99F4F2619508}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{002BDDB7-A2F3-4830-BDA8-CFBD173D64AF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D825B4FF-3A96-46EF-A9C5-C57D05D555A3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{76003FE2-0CF2-48A4-9377-4AD9AB8841A4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CEBD2320-89E0-4A20-B6B4-F9B56831462D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BDF44F9F-D31D-46CA-B7BB-B8C5A779E1AB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0716E181-DE7E-47B0-A077-9C30BB3BB384}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{64713726-1F90-41F8-ABDA-5F6492DDE072}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D1D006F4-05AF-4062-BEE6-476847B0C294}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{48DA58EC-4B23-4AF6-86F0-5E1DF90B1BB5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FCFAEBDC-6681-42B3-85E1-F79B3BE286F1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{84593502-68F2-4883-A8AA-2A27F1421C9D}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{4B57CFA2-DF3F-493D-BFB7-DF0F24AEE332}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{93B78DAF-E5A6-412F-9E64-4E2EF1D2464D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0174DE0E-9EC4-45F4-9E3E-3FEBB8F1EE35}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13588,7 +13588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B24EEE2C-2EB8-4656-A744-4922CA72D214}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F5DD8E-757E-4B14-90CD-A30C37AC931C}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -14940,18 +14940,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8FCD1F00-283D-4D16-ACC9-6B907025013F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{81D0571C-B503-4F1F-AAE9-72E9B637C9DC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9D60346C-1079-4075-89D4-61507F2FE14B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AE771A89-D54E-4CDB-A702-9A90886F283E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CF7DF6D6-FC74-44DE-8BB7-550E076B474E}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{BBBBEBE0-BF1E-43D1-9B96-FD6B20481FE2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{919E9104-F120-46B0-B7B0-947E0DE1D06A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{39265E31-D504-4920-BB29-780ADBD87DCF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DF430F2F-AFFD-42AF-868D-C7E3B08CFA38}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{DD9216DD-7A6E-43CA-9590-AAF60B7F5360}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7A755DE6-6681-44F2-BAC9-966AE1FA1541}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{595EEDBD-3919-437D-B00C-E1DBC019ED69}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0104A60A-3247-4537-838F-8B43095EE143}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B71720A8-F171-4CF5-813E-67077394C2AD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{54E1F838-5D19-443A-952E-4BEE9EB5ECE8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AB35DDC6-A41B-42DF-AD45-5C2F63761FC2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{35D93AE6-3542-4D82-A2F4-B740B23305F7}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0F826A03-E3D9-4715-9942-E14AB1411D82}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E7145E0E-42D1-486D-9418-D62144B88D0D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2C0B1A6F-A696-45D5-B37C-3AE6AD6B2CAF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6809DCFF-23A1-4987-96DF-2CDF6BFFB163}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{AAD7A872-2BD2-4773-A422-1194110C9E56}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A82E0D73-1A58-4DE7-B1BB-0D8B4A9E1FE6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{89DCB681-AA2C-4AFC-A3A7-1BA0180B7E9F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14964,7 +14964,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F5B2DB4-4A16-42B3-8A92-54178A4FB15C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB2A09A4-9D07-4513-8635-2467A68AF92E}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -16316,18 +16316,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{30D38E16-997C-4D0A-A130-074CEAA7153B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D0EBD3D4-7CC5-46A4-A58A-2D9AAE083BE3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{52DB179B-32DB-438B-A949-0D03B87968E1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0E88437A-D82E-4E75-8BBB-39646BD74032}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5ABB9DD5-9AF2-4FCA-88C0-CE8DA05803AB}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{31028B5A-773F-43A6-8E65-D412F86A1CCF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BE1B3C2C-8CD3-4B87-8F48-76C1A41935AA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3FBD4084-51BE-491C-88BE-554A0F375B93}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9FBEF737-FCA5-4226-A496-0E2D6B147060}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{4BAAB812-F890-4CD2-B30D-D31611FA8975}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{86ABCA75-124B-491C-ACC9-1CC95015B124}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6B7508D0-654C-49B9-B2D2-10FA4E64D6E8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A49BA3CB-633C-4251-8217-BFA554980A1E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{014C11B0-7554-4A22-B405-0C0FFB9A6944}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C7560C80-0DE3-415F-80C0-21B7A7AA709E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{769875EB-F75E-4A60-B0DA-D4628EBD8861}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B12DAB94-6B62-45BE-A769-4757B51156D7}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7C3C9A81-5C35-4EF0-968C-9F0A2A141FFD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F2592D8D-B020-48FB-840B-450E623AF60A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{898F53FB-8BD0-42A1-BAF5-33A46C6F3EC1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{58D847BA-4E9B-47DE-B896-562B62C15E03}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{FE953D27-3328-431B-9EA4-747F3E969C0E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{17B4AC2F-CF5E-4284-B15A-7E51A3836B1D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{38D6A3B1-FD3A-47B6-89AF-D52261F8810A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -16340,7 +16340,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8824C9F2-57FA-4E75-971D-87E22A34CAA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74DE9BEF-2540-4E8B-B3CD-C9DA29A94DD0}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -17692,18 +17692,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1FCD1C0C-4F70-4B4D-9B9F-43AA50ED595A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{962B9298-342C-4B47-8856-E112BF40FFCD}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{96F39036-C092-474D-B881-AF03158D7120}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6B106464-D991-4ED1-86BC-EB386D47860D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1FD6FEE8-CE37-47AD-9C0A-5384B868DB03}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{14DBB87D-0FB1-4D61-B28E-DAC4FDD837AE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{093FA487-C2CE-4474-BD7F-45AEBE3A9D29}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{69DE493B-0C5F-4F4D-81E0-E1BD5740DD04}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{22964B13-8D11-42CE-BFCC-6D3C7398CC20}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{8B8E1816-B818-4666-AF2C-0DBE8A513CE5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{546A28AA-2EE6-43F9-B39B-389E5CE30991}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4304FAAA-7D81-4368-B8DA-F08EC59DE2B4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{27D90A08-8815-4274-8071-A2824363E4F0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E87CA9FE-33C4-4371-B663-8978EF42623C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1617A2FE-42AB-4CFF-A265-1492D2A7EF0F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F2DD2406-527C-4860-A4F2-92DA85B6F30A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9C978AF7-F4A6-4F34-8443-252BF4698A0C}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1798CCA3-9B24-4123-8DA7-90AECF38B722}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{41C0945B-5A19-4058-B16C-1A5CCD8235D4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{96D8613B-C69E-4118-87EF-D5B515FA87A7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{ACEF317D-3288-4A51-ABE6-7303ED1E8BDF}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{FD80702B-7D77-4E23-A2C9-6EA9246F8D52}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B90F4F03-E4B7-45CF-8C8E-E3EE04F92100}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0A724D31-8EA1-43BC-9F2E-D64FB3370F6B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
